--- a/docs/BOM.xlsx
+++ b/docs/BOM.xlsx
@@ -116,10 +116,10 @@
     <t>Hotel Expenses</t>
   </si>
   <si>
-    <t>TOTAL CONSTRUCTION</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOTAL PRICE </t>
+  </si>
+  <si>
+    <t>Total Construction</t>
   </si>
 </sst>
 </file>
@@ -130,8 +130,16 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -155,17 +163,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE76BD0-72AB-4E45-85D1-450FFB36C44A}">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,186 +607,191 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1">
+    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7">
         <f>SUM(D3:D14)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2"/>
+      <c r="D17" s="6">
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7">
         <f>D15+D16+D17</f>
         <v>2150</v>
       </c>
     </row>
+    <row r="19" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>